--- a/empilement.xlsx
+++ b/empilement.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Pli</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>Nult</t>
+  </si>
+  <si>
+    <t>proportion (%)</t>
   </si>
 </sst>
 </file>
@@ -375,7 +378,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -406,51 +409,113 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2"/>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="D2" s="1">
+        <v>130000</v>
+      </c>
+      <c r="E2" s="1">
+        <v>7000</v>
+      </c>
+      <c r="F2" s="1">
+        <v>4200</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="H2" s="1">
+        <v>60</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="B3" s="1">
+        <v>90</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="D3" s="1">
+        <v>130000</v>
+      </c>
+      <c r="E3" s="1">
+        <v>7000</v>
+      </c>
+      <c r="F3" s="1">
+        <v>4200</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="H3" s="1">
+        <v>20</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>-45</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="D4" s="1">
+        <v>130000</v>
+      </c>
+      <c r="E4" s="1">
+        <v>7000</v>
+      </c>
+      <c r="F4" s="1">
+        <v>4200</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="H4" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>45</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="D5" s="1">
+        <v>130000</v>
+      </c>
+      <c r="E5" s="1">
+        <v>7000</v>
+      </c>
+      <c r="F5" s="1">
+        <v>4200</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="H5" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
@@ -470,6 +535,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
@@ -479,6 +545,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
@@ -488,6 +555,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
@@ -497,6 +565,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
@@ -506,6 +575,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
@@ -515,6 +585,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
@@ -524,6 +595,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
